--- a/src/test/java/com/inetbanking2/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking2/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -28,22 +28,13 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">mngr518485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome@135</t>
+    <t xml:space="preserve">mngr582629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsasYjA</t>
   </si>
   <si>
     <t xml:space="preserve">mngr519976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenunub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mngr519977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jEsYnes</t>
   </si>
   <si>
     <t xml:space="preserve">mngr519978</t>
@@ -174,6 +165,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -182,7 +279,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -208,37 +305,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@135"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
